--- a/Name & Location - Test file.xlsx
+++ b/Name & Location - Test file.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF529039-A3C2-46F4-96EB-5760497717B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srkura\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E1B82-6763-46B2-8D1F-D764F481D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -55,13 +60,16 @@
   </si>
   <si>
     <t>Hydrabad</t>
+  </si>
+  <si>
+    <t>Rahul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,48 +423,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Name & Location - Test file.xlsx
+++ b/Name & Location - Test file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srkura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E1B82-6763-46B2-8D1F-D764F481D473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FAB22-282D-4B8F-BACF-86F312CC1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Rahul</t>
+  </si>
+  <si>
+    <t>Employ</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,44 +439,59 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
